--- a/storage/excel/sum85.xlsx
+++ b/storage/excel/sum85.xlsx
@@ -1719,22 +1719,22 @@
         <v>24</v>
       </c>
       <c r="C11" s="28">
-        <v>22177.991020298</v>
+        <v>265939.41318994</v>
       </c>
       <c r="D11" s="28">
-        <v>19.372202542007</v>
+        <v>228.022830502</v>
       </c>
       <c r="E11" s="28">
-        <v>15422.118566807</v>
+        <v>185067.66560996</v>
       </c>
       <c r="F11" s="28">
-        <v>6.0572982277856</v>
+        <v>72.346322884935</v>
       </c>
       <c r="G11" s="28">
-        <v>18800.054793553</v>
+        <v>225503.53939995</v>
       </c>
       <c r="H11" s="28">
-        <v>12.714750384897</v>
+        <v>150.18457669347</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1747,22 +1747,22 @@
         <v>25</v>
       </c>
       <c r="Q11" s="28">
-        <v>10119.052631579</v>
+        <v>121462.99138756</v>
       </c>
       <c r="R11" s="28">
-        <v>16.980363015326</v>
+        <v>201.71149945754</v>
       </c>
       <c r="S11" s="28">
-        <v>10969.172624852</v>
+        <v>132321.74672251</v>
       </c>
       <c r="T11" s="28">
-        <v>3.9438907962746</v>
+        <v>47.837611176827</v>
       </c>
       <c r="U11" s="28">
-        <v>10544.112628215</v>
+        <v>126892.36905503</v>
       </c>
       <c r="V11" s="28">
-        <v>10.4621269058</v>
+        <v>124.77455531719</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -1775,22 +1775,22 @@
         <v>26</v>
       </c>
       <c r="AE11" s="28">
-        <v>5946.9717741935</v>
+        <v>71182.631356736</v>
       </c>
       <c r="AF11" s="28">
-        <v>0.70396316425816</v>
+        <v>8.3478809879584</v>
       </c>
       <c r="AG11" s="28">
-        <v>4942.5078727412</v>
+        <v>59284.309348402</v>
       </c>
       <c r="AH11" s="28">
-        <v>0.38739263772823</v>
+        <v>4.6637988992641</v>
       </c>
       <c r="AI11" s="28">
-        <v>5444.7398234674</v>
+        <v>65233.470352569</v>
       </c>
       <c r="AJ11" s="28">
-        <v>0.5456779009932</v>
+        <v>6.5058399436112</v>
       </c>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
@@ -1800,22 +1800,22 @@
       <c r="AP11" s="2"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="28">
-        <v>538873</v>
+        <v>513983.17690577</v>
       </c>
       <c r="AS11" s="28">
-        <v>38.12</v>
+        <v>36.355398876042</v>
       </c>
       <c r="AT11" s="28">
-        <v>1321900</v>
+        <v>1353069.3973847</v>
       </c>
       <c r="AU11" s="28">
-        <v>43.29</v>
+        <v>44.314940161021</v>
       </c>
       <c r="AV11" s="28">
-        <v>1818324.1523838</v>
+        <v>1860114.729913</v>
       </c>
       <c r="AW11" s="28">
-        <v>40.71</v>
+        <v>0.41640534289268</v>
       </c>
       <c r="AX11" s="2"/>
       <c r="AY11" s="2"/>
@@ -1829,22 +1829,22 @@
         <v>16</v>
       </c>
       <c r="BG11" s="28">
-        <v>289007.66331341</v>
+        <v>288731.34690761</v>
       </c>
       <c r="BH11" s="28">
-        <v>270.3613390739</v>
+        <v>269.59940310232</v>
       </c>
       <c r="BI11" s="28">
-        <v>235717.21763786</v>
+        <v>235513.82912179</v>
       </c>
       <c r="BJ11" s="28">
-        <v>44.095469004344</v>
+        <v>43.851677168231</v>
       </c>
       <c r="BK11" s="28">
-        <v>262362.44047564</v>
+        <v>262122.5880147</v>
       </c>
       <c r="BL11" s="28">
-        <v>157.22840403912</v>
+        <v>156.72554013527</v>
       </c>
       <c r="BM11" s="2"/>
       <c r="BN11" s="2"/>
@@ -1859,22 +1859,22 @@
         <v>27</v>
       </c>
       <c r="C12" s="28">
-        <v>6754.3497058824</v>
+        <v>80914.03073262</v>
       </c>
       <c r="D12" s="28">
-        <v>1.8285640868802</v>
+        <v>21.520260692506</v>
       </c>
       <c r="E12" s="28">
-        <v>5286.6038359788</v>
+        <v>63341.169269841</v>
       </c>
       <c r="F12" s="28">
-        <v>0.64826591665242</v>
+        <v>7.728683722756</v>
       </c>
       <c r="G12" s="28">
-        <v>6020.4767709306</v>
+        <v>72127.600001231</v>
       </c>
       <c r="H12" s="28">
-        <v>1.2384150017663</v>
+        <v>14.624472207631</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1887,22 +1887,22 @@
         <v>28</v>
       </c>
       <c r="Q12" s="28">
-        <v>23751.709851552</v>
+        <v>284226.82348178</v>
       </c>
       <c r="R12" s="28">
-        <v>58.532966664712</v>
+        <v>689.25924646679</v>
       </c>
       <c r="S12" s="28">
-        <v>15370.615571602</v>
+        <v>184167.4439408</v>
       </c>
       <c r="T12" s="28">
-        <v>18.411953635391</v>
+        <v>223.49535900166</v>
       </c>
       <c r="U12" s="28">
-        <v>19561.162711577</v>
+        <v>234197.13371129</v>
       </c>
       <c r="V12" s="28">
-        <v>38.472460150052</v>
+        <v>456.37730273422</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -1915,22 +1915,22 @@
         <v>29</v>
       </c>
       <c r="AE12" s="28">
-        <v>1384.9238095238</v>
+        <v>16653.115324675</v>
       </c>
       <c r="AF12" s="28">
-        <v>20.82266149995</v>
+        <v>245.20072803955</v>
       </c>
       <c r="AG12" s="28">
-        <v>1049.25</v>
+        <v>12461.616</v>
       </c>
       <c r="AH12" s="28">
-        <v>2.809435448223</v>
+        <v>33.784186865425</v>
       </c>
       <c r="AI12" s="28">
-        <v>1217.0869047619</v>
+        <v>14557.365662338</v>
       </c>
       <c r="AJ12" s="28">
-        <v>11.816048474087</v>
+        <v>139.49245745249</v>
       </c>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
@@ -1940,22 +1940,22 @@
       <c r="AP12" s="2"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="28">
-        <v>928177</v>
+        <v>884624.99423952</v>
       </c>
       <c r="AS12" s="28">
-        <v>65.65</v>
+        <v>62.571881661391</v>
       </c>
       <c r="AT12" s="28">
-        <v>1618250</v>
+        <v>1656110.8385201</v>
       </c>
       <c r="AU12" s="28">
-        <v>53</v>
+        <v>54.239976789729</v>
       </c>
       <c r="AV12" s="28">
-        <v>2650147.2962202</v>
+        <v>2547998.2436571</v>
       </c>
       <c r="AW12" s="28">
-        <v>59.33</v>
+        <v>0.57039496826608</v>
       </c>
       <c r="AX12" s="2"/>
       <c r="AY12" s="2"/>
@@ -2001,22 +2001,22 @@
         <v>30</v>
       </c>
       <c r="Q13" s="28">
-        <v>11495</v>
+        <v>138057</v>
       </c>
       <c r="R13" s="28">
-        <v>1027.9713031014</v>
+        <v>12268.41554562</v>
       </c>
       <c r="S13" s="28">
-        <v>16500</v>
+        <v>199104</v>
       </c>
       <c r="T13" s="28">
-        <v>11927.951184248</v>
+        <v>144842.63211539</v>
       </c>
       <c r="U13" s="28">
-        <v>13997.5</v>
+        <v>168580.5</v>
       </c>
       <c r="V13" s="28">
-        <v>6477.9612436746</v>
+        <v>78555.523830505</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -2029,22 +2029,22 @@
         <v>31</v>
       </c>
       <c r="AE13" s="28">
-        <v>6000.7002515723</v>
+        <v>70781.447320755</v>
       </c>
       <c r="AF13" s="28">
-        <v>2149.4614673054</v>
+        <v>25295.622599107</v>
       </c>
       <c r="AG13" s="28">
-        <v>4750.5319148936</v>
+        <v>56876.629787234</v>
       </c>
       <c r="AH13" s="28">
-        <v>1131.3489124397</v>
+        <v>13738.040836733</v>
       </c>
       <c r="AI13" s="28">
-        <v>5375.616083233</v>
+        <v>63829.038553994</v>
       </c>
       <c r="AJ13" s="28">
-        <v>1640.4051898725</v>
+        <v>19516.83171792</v>
       </c>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
@@ -2103,22 +2103,22 @@
         <v>32</v>
       </c>
       <c r="Q14" s="28">
-        <v>20845.24137931</v>
+        <v>251042.31724138</v>
       </c>
       <c r="R14" s="28">
-        <v>219.85175272268</v>
+        <v>2606.7777214945</v>
       </c>
       <c r="S14" s="28">
-        <v>22096.488812392</v>
+        <v>263304.97982788</v>
       </c>
       <c r="T14" s="28">
-        <v>123.51982639826</v>
+        <v>1486.9538110002</v>
       </c>
       <c r="U14" s="28">
-        <v>21470.865095851</v>
+        <v>257173.64853463</v>
       </c>
       <c r="V14" s="28">
-        <v>171.68578956047</v>
+        <v>2046.8657662473</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -2131,22 +2131,22 @@
         <v>33</v>
       </c>
       <c r="AE14" s="28">
-        <v>508.38170914543</v>
+        <v>6139.8907946027</v>
       </c>
       <c r="AF14" s="28">
-        <v>12.615476415773</v>
+        <v>149.30772186072</v>
       </c>
       <c r="AG14" s="28">
-        <v>911.21101871102</v>
+        <v>10849.145613306</v>
       </c>
       <c r="AH14" s="28">
-        <v>11.416454727013</v>
+        <v>135.45863687103</v>
       </c>
       <c r="AI14" s="28">
-        <v>709.79636392822</v>
+        <v>8494.5182039542</v>
       </c>
       <c r="AJ14" s="28">
-        <v>12.015965571393</v>
+        <v>142.38317936588</v>
       </c>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
@@ -2203,22 +2203,22 @@
         <v>34</v>
       </c>
       <c r="Q15" s="28">
-        <v>25979.30266859</v>
+        <v>312472.2561053</v>
       </c>
       <c r="R15" s="28">
-        <v>84.482963513382</v>
+        <v>1006.3657924278</v>
       </c>
       <c r="S15" s="28">
-        <v>21931.865610629</v>
+        <v>261670.40925498</v>
       </c>
       <c r="T15" s="28">
-        <v>84.577110541242</v>
+        <v>1002.8700396965</v>
       </c>
       <c r="U15" s="28">
-        <v>23955.584139609</v>
+        <v>287071.33268014</v>
       </c>
       <c r="V15" s="28">
-        <v>84.530037027312</v>
+        <v>1004.6179160621</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -2231,22 +2231,22 @@
         <v>35</v>
       </c>
       <c r="AE15" s="28">
-        <v>1285.9629386557</v>
+        <v>15384.713749403</v>
       </c>
       <c r="AF15" s="28">
-        <v>0.67006045524226</v>
+        <v>7.8933431495407</v>
       </c>
       <c r="AG15" s="28">
-        <v>694.53144428333</v>
+        <v>8346.8219177637</v>
       </c>
       <c r="AH15" s="28">
-        <v>0.18185718120392</v>
+        <v>2.2072171004267</v>
       </c>
       <c r="AI15" s="28">
-        <v>990.24719146951</v>
+        <v>11865.767833583</v>
       </c>
       <c r="AJ15" s="28">
-        <v>0.42595881822309</v>
+        <v>5.0502801249837</v>
       </c>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
@@ -2303,22 +2303,22 @@
         <v>36</v>
       </c>
       <c r="Q16" s="28">
-        <v>9880.4751312944</v>
+        <v>118369.57145505</v>
       </c>
       <c r="R16" s="28">
-        <v>8.3021714746501</v>
+        <v>99.674898282389</v>
       </c>
       <c r="S16" s="28">
-        <v>7939.6277177878</v>
+        <v>95197.885441121</v>
       </c>
       <c r="T16" s="28">
-        <v>3.2384292441019</v>
+        <v>38.43361994772</v>
       </c>
       <c r="U16" s="28">
-        <v>8910.0514245411</v>
+        <v>106783.72844809</v>
       </c>
       <c r="V16" s="28">
-        <v>5.770300359376</v>
+        <v>69.054259115055</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -2331,22 +2331,22 @@
         <v>37</v>
       </c>
       <c r="AE16" s="28">
-        <v>882.59518142112</v>
+        <v>10540.361869479</v>
       </c>
       <c r="AF16" s="28">
-        <v>0.34730378114497</v>
+        <v>4.0871993659306</v>
       </c>
       <c r="AG16" s="28">
-        <v>488.88160334528</v>
+        <v>5870.8697925735</v>
       </c>
       <c r="AH16" s="28">
-        <v>0.1278011020021</v>
+        <v>1.5486261060899</v>
       </c>
       <c r="AI16" s="28">
-        <v>685.7383923832</v>
+        <v>8205.615831026</v>
       </c>
       <c r="AJ16" s="28">
-        <v>0.23755244157353</v>
+        <v>2.8179127360102</v>
       </c>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
@@ -2403,22 +2403,22 @@
         <v>38</v>
       </c>
       <c r="Q17" s="28">
-        <v>6022.1923076923</v>
+        <v>72632.007692308</v>
       </c>
       <c r="R17" s="28">
-        <v>28.361096213345</v>
+        <v>333.83412195366</v>
       </c>
       <c r="S17" s="28">
-        <v>5337.8951990632</v>
+        <v>63692.799063232</v>
       </c>
       <c r="T17" s="28">
-        <v>10.758945242384</v>
+        <v>127.76774431457</v>
       </c>
       <c r="U17" s="28">
-        <v>5680.0437533778</v>
+        <v>68162.40337777</v>
       </c>
       <c r="V17" s="28">
-        <v>19.560020727865</v>
+        <v>230.80093313411</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -2431,22 +2431,22 @@
         <v>39</v>
       </c>
       <c r="AE17" s="28">
-        <v>306.8202027027</v>
+        <v>3674.651531941</v>
       </c>
       <c r="AF17" s="28">
-        <v>0.90458630991633</v>
+        <v>10.653119987895</v>
       </c>
       <c r="AG17" s="28">
-        <v>130.818360113</v>
+        <v>1566.0259419544</v>
       </c>
       <c r="AH17" s="28">
-        <v>0.049989692155475</v>
+        <v>0.59829141885602</v>
       </c>
       <c r="AI17" s="28">
-        <v>218.81928140785</v>
+        <v>2620.3387369477</v>
       </c>
       <c r="AJ17" s="28">
-        <v>0.4772880010359</v>
+        <v>5.6257057033754</v>
       </c>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
@@ -2494,22 +2494,22 @@
         <v>40</v>
       </c>
       <c r="Q18" s="28">
-        <v>6625.6425834702</v>
+        <v>80017.264039409</v>
       </c>
       <c r="R18" s="28">
-        <v>20.205817796988</v>
+        <v>244.500896208</v>
       </c>
       <c r="S18" s="28">
-        <v>2349.0003982477</v>
+        <v>28152.33911589</v>
       </c>
       <c r="T18" s="28">
-        <v>13.954073183599</v>
+        <v>165.95605435051</v>
       </c>
       <c r="U18" s="28">
-        <v>4487.3214908589</v>
+        <v>54084.801577649</v>
       </c>
       <c r="V18" s="28">
-        <v>17.079945490294</v>
+        <v>205.22847527925</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -2522,22 +2522,22 @@
         <v>41</v>
       </c>
       <c r="AE18" s="28">
-        <v>548.66185672515</v>
+        <v>6570.714628655</v>
       </c>
       <c r="AF18" s="28">
-        <v>0.14449369031402</v>
+        <v>1.7172075985236</v>
       </c>
       <c r="AG18" s="28">
-        <v>422.68631797176</v>
+        <v>5071.3159687435</v>
       </c>
       <c r="AH18" s="28">
-        <v>0.0905930791294</v>
+        <v>1.0770797344886</v>
       </c>
       <c r="AI18" s="28">
-        <v>485.67408734845</v>
+        <v>5821.0152986992</v>
       </c>
       <c r="AJ18" s="28">
-        <v>0.11754338472171</v>
+        <v>1.3971436665061</v>
       </c>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
@@ -2601,22 +2601,22 @@
         <v>42</v>
       </c>
       <c r="AE19" s="28">
-        <v>679.13903838465</v>
+        <v>8148.0351543383</v>
       </c>
       <c r="AF19" s="28">
-        <v>0.79681442671769</v>
+        <v>9.3904889000366</v>
       </c>
       <c r="AG19" s="28">
-        <v>640.35141242938</v>
+        <v>7671.8853423729</v>
       </c>
       <c r="AH19" s="28">
-        <v>0.73012569182339</v>
+        <v>8.8523019465813</v>
       </c>
       <c r="AI19" s="28">
-        <v>659.74522540701</v>
+        <v>7909.9602483556</v>
       </c>
       <c r="AJ19" s="28">
-        <v>0.76347005927054</v>
+        <v>9.1213954233089</v>
       </c>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
@@ -2678,22 +2678,22 @@
         <v>43</v>
       </c>
       <c r="AE20" s="28">
-        <v>1349.9945355191</v>
+        <v>16354.357377049</v>
       </c>
       <c r="AF20" s="28">
-        <v>134.24741917931</v>
+        <v>1581.9379033248</v>
       </c>
       <c r="AG20" s="28">
-        <v>911.69886363636</v>
+        <v>10922.093454545</v>
       </c>
       <c r="AH20" s="28">
-        <v>4.6238057078642</v>
+        <v>56.147516084473</v>
       </c>
       <c r="AI20" s="28">
-        <v>1130.8466995777</v>
+        <v>13638.225415797</v>
       </c>
       <c r="AJ20" s="28">
-        <v>69.435612443586</v>
+        <v>819.04270970462</v>
       </c>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
@@ -2755,22 +2755,22 @@
         <v>44</v>
       </c>
       <c r="AE21" s="28">
-        <v>11531.537333333</v>
+        <v>138980.29773333</v>
       </c>
       <c r="AF21" s="28">
-        <v>23.488863770002</v>
+        <v>276.89023850168</v>
       </c>
       <c r="AG21" s="28">
-        <v>7728.4682671434</v>
+        <v>92302.965710637</v>
       </c>
       <c r="AH21" s="28">
-        <v>10.955914914757</v>
+        <v>129.90700088017</v>
       </c>
       <c r="AI21" s="28">
-        <v>9630.0028002384</v>
+        <v>115641.63172199</v>
       </c>
       <c r="AJ21" s="28">
-        <v>17.222389342379</v>
+        <v>203.39861969092</v>
       </c>
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
@@ -2832,22 +2832,22 @@
         <v>45</v>
       </c>
       <c r="AE22" s="28">
-        <v>2463.7444444444</v>
+        <v>29195.561699346</v>
       </c>
       <c r="AF22" s="28">
-        <v>9.5678563042985</v>
+        <v>112.59803462028</v>
       </c>
       <c r="AG22" s="28">
-        <v>3076.7786561265</v>
+        <v>36605.995256917</v>
       </c>
       <c r="AH22" s="28">
-        <v>88.364599665</v>
+        <v>1050.4301954909</v>
       </c>
       <c r="AI22" s="28">
-        <v>2770.2615502855</v>
+        <v>32900.778478132</v>
       </c>
       <c r="AJ22" s="28">
-        <v>48.966227984649</v>
+        <v>581.51411505558</v>
       </c>
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
@@ -2909,22 +2909,22 @@
         <v>46</v>
       </c>
       <c r="AE23" s="28">
-        <v>8491.1394447886</v>
+        <v>101412.59073799</v>
       </c>
       <c r="AF23" s="28">
-        <v>20.14942270147</v>
+        <v>240.26788509831</v>
       </c>
       <c r="AG23" s="28">
-        <v>6505.2398688608</v>
+        <v>78158.422758291</v>
       </c>
       <c r="AH23" s="28">
-        <v>2.4959614358348</v>
+        <v>30.298936887083</v>
       </c>
       <c r="AI23" s="28">
-        <v>7498.1896568247</v>
+        <v>89785.506748139</v>
       </c>
       <c r="AJ23" s="28">
-        <v>11.322692068652</v>
+        <v>135.2834109927</v>
       </c>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
@@ -2986,22 +2986,22 @@
         <v>40</v>
       </c>
       <c r="AE24" s="28">
-        <v>2738.2</v>
+        <v>32796.52</v>
       </c>
       <c r="AF24" s="28">
-        <v>1086.526016051</v>
+        <v>12797.394064272</v>
       </c>
       <c r="AG24" s="28">
-        <v>10670</v>
+        <v>130824.96</v>
       </c>
       <c r="AH24" s="28">
-        <v>5000.3612369508</v>
+        <v>60720.117628345</v>
       </c>
       <c r="AI24" s="28">
-        <v>6704.1</v>
+        <v>81810.74</v>
       </c>
       <c r="AJ24" s="28">
-        <v>3043.4436265009</v>
+        <v>36758.755846308</v>
       </c>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
